--- a/biology/Zoologie/Cornélius_1er/Cornélius_1er.xlsx
+++ b/biology/Zoologie/Cornélius_1er/Cornélius_1er.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corn%C3%A9lius_1er</t>
+          <t>Cornélius_1er</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornélius 1er (mort le 3 avril 2013) [1] était un rhinocéros noir au zoo de Granby à Granby, Québec, Canada. Le nom "Cornélius" est un calembour, car les rhinocéros sont connus pour leurs cornes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornélius 1er (mort le 3 avril 2013)  était un rhinocéros noir au zoo de Granby à Granby, Québec, Canada. Le nom "Cornélius" est un calembour, car les rhinocéros sont connus pour leurs cornes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corn%C3%A9lius_1er</t>
+          <t>Cornélius_1er</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Candidature politique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornélius fût nommé chef nominal du Parti Rhinocéros du Canada, de 1965 à 1993. Le parti a attiré un nombre considérable de voix aux élections canadiennes de 1979, 1980 et 1984, arrivant même parfois en deuxième place dans certaines circonscriptions, mais n'a jamais eu de candidat élu à la Chambre des communes du Canada.
-Le Parti a été inspiré par Cacareco, un rhinocéros du zoo de São Paulo au Brésil, qui était candidat aux élections municipales de 1958 avec l'intention de protester contre la corruption politique[2]. Les responsables électoraux n'ont pas accepté la candidature de Cacareco, mais il a finalement remporté 100 000 voix, plus que tout autre parti lors de cette même élection (qui a également été marquée par un absentéisme rampant). Aujourd'hui, le terme «Voto Cacareco» (vote Cacareco) est couramment utilisé pour décrire les votes de protestation au Brésil.
-Lors de l'élection fédérale canadienne de 1984, le parti a fait une grande partie de son programme politique en déclarant la guerre à la Belgique parce qu'un personnage de bande dessinée belge, Tintin, a tué un rhinocéros dans l'une des premières œuvres de la série de bandes dessinées[3]. Le parti a proposé d'annuler la guerre belgo-canadienne menacée si la Belgique livrait une caisse de moules et une caisse de bière belge à Rhinoceros "Hindquarters" à Montréal (l'ambassade de Belgique à Ottawa l'a accepté)[3].
+Le Parti a été inspiré par Cacareco, un rhinocéros du zoo de São Paulo au Brésil, qui était candidat aux élections municipales de 1958 avec l'intention de protester contre la corruption politique. Les responsables électoraux n'ont pas accepté la candidature de Cacareco, mais il a finalement remporté 100 000 voix, plus que tout autre parti lors de cette même élection (qui a également été marquée par un absentéisme rampant). Aujourd'hui, le terme «Voto Cacareco» (vote Cacareco) est couramment utilisé pour décrire les votes de protestation au Brésil.
+Lors de l'élection fédérale canadienne de 1984, le parti a fait une grande partie de son programme politique en déclarant la guerre à la Belgique parce qu'un personnage de bande dessinée belge, Tintin, a tué un rhinocéros dans l'une des premières œuvres de la série de bandes dessinées. Le parti a proposé d'annuler la guerre belgo-canadienne menacée si la Belgique livrait une caisse de moules et une caisse de bière belge à Rhinoceros "Hindquarters" à Montréal (l'ambassade de Belgique à Ottawa l'a accepté).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corn%C3%A9lius_1er</t>
+          <t>Cornélius_1er</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le zoo de Granby a fini par échanger Cornélius au zoo de San Diego en échange d'une girafe[4]. Le zoo de San Diego l'a prêté au zoo de Caldwell, où il a engendré une progéniture le 6 janvier 2003[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le zoo de Granby a fini par échanger Cornélius au zoo de San Diego en échange d'une girafe. Le zoo de San Diego l'a prêté au zoo de Caldwell, où il a engendré une progéniture le 6 janvier 2003.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corn%C3%A9lius_1er</t>
+          <t>Cornélius_1er</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Mort</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornélius est mort le 3 avril 2013 au zoo de Caldwell. Un reportage indique qu'il "souffrait d'une pneumonie et que la tuberculose mycobacterium (Bacille de Koch) avait touché ses poumons"[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornélius est mort le 3 avril 2013 au zoo de Caldwell. Un reportage indique qu'il "souffrait d'une pneumonie et que la tuberculose mycobacterium (Bacille de Koch) avait touché ses poumons".
 </t>
         </is>
       </c>
